--- a/AmazonCrawler/data/listingposition.xlsx
+++ b/AmazonCrawler/data/listingposition.xlsx
@@ -13,13 +13,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>swim+dress</t>
+  </si>
+  <si>
+    <t>MiYang</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Sponsored</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Womens-Printing-Swimwear-Stripe/dp/B01HPQQHOY/ref=sr_1_21/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-21&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Womens-Printing-Swimdress-28W-30W/dp/B01MXLWZ7S/ref=sr_1_92/142-3378913-1055220?ie=UTF8&amp;qid=1529726631&amp;sr=8-92&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Swimsuit-Skirtini-Swimdress-BlackStriped/dp/B01G8H8UUU/ref=sr_1_166/142-3378913-1055220?ie=UTF8&amp;qid=1529726638&amp;sr=8-166&amp;keywords=swim+dress</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -30,6 +77,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -52,6 +107,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -59,9 +122,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,67 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -173,6 +205,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -189,181 +236,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +429,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,26 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -474,6 +510,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -482,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,138 +541,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,14 +1026,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" display="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress" tooltip="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/AmazonCrawler/data/listingposition.xlsx
+++ b/AmazonCrawler/data/listingposition.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowHeight="13050" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="爬取结果表" sheetId="3" r:id="rId1"/>
+    <sheet name="爬取结果表" r:id="rId1" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="0">
   <si>
     <t>swim+dress</t>
   </si>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -523,214 +523,214 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="27" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="26" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="19" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -744,10 +744,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -905,7 +905,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -914,13 +914,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -930,7 +930,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -939,7 +939,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -948,7 +948,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -958,12 +958,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -994,7 +994,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1013,7 +1013,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1024,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1032,93 +1032,12 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6" outlineLevelRow="3"/>
+  <sheetData/>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" display="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress" tooltip="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress"/>
+    <hyperlink display="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress" r:id="rId1" ref="G1" tooltip="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/AmazonCrawler/data/listingposition.xlsx
+++ b/AmazonCrawler/data/listingposition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>swim+dress</t>
   </si>
@@ -56,6 +56,54 @@
   </si>
   <si>
     <t>https://www.amazon.com/MiYang-Swimsuit-Skirtini-Swimdress-BlackStriped/dp/B01G8H8UUU/ref=sr_1_166/142-3378913-1055220?ie=UTF8&amp;qid=1529726638&amp;sr=8-166&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>womens+tankini</t>
+  </si>
+  <si>
+    <t>B01DLSNC8O</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Stripes-Tankini-Bathing-Swimwear/dp/B01DLSNC8O/ref=sr_1_133/135-5532881-0616043?s=apparel&amp;ie=UTF8&amp;qid=1531447167&amp;sr=1-133&amp;nodeID=1046622&amp;psd=1&amp;keywords=womens+tankini</t>
+  </si>
+  <si>
+    <t>tankini+with+shorts</t>
+  </si>
+  <si>
+    <t>B01J71HQRW</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Stripes-Tankini-Bathing-Swimwear/dp/B01J71HQRW/ref=sr_1_38/133-5692875-4219244?ie=UTF8&amp;qid=1531447397&amp;sr=8-38&amp;keywords=tankini+with+shorts</t>
+  </si>
+  <si>
+    <t>womens+swimsuits+tankini</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Stripes-Tankini-Bathing-Swimwear/dp/B01J71HQRW/ref=sr_1_67/134-5898202-6547654?ie=UTF8&amp;qid=1531447478&amp;sr=8-67&amp;keywords=womens+swimsuits+tankini</t>
+  </si>
+  <si>
+    <t>B071LFK69M</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Womens-Tankini-Striped-Vintage/dp/B071LFK69M/ref=sr_1_61/134-5898202-6547654?ie=UTF8&amp;qid=1531447478&amp;sr=8-61&amp;keywords=womens+swimsuits+tankini</t>
   </si>
 </sst>
 </file>
@@ -1026,14 +1074,107 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6" outlineLevelRow="3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <hyperlinks>
     <hyperlink display="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress" r:id="rId1" ref="G1" tooltip="https://www.amazon.com/MiYang-Tankini-Striped-Vintage-X-Large/dp/B0154PQ95K/ref=sr_1_15/139-4793061-1124066?ie=UTF8&amp;qid=1529726626&amp;sr=8-15&amp;keywords=swim+dress"/>
   </hyperlinks>
